--- a/cognite/neat/rules/catalog/info-rules-imf.xlsx
+++ b/cognite/neat/rules/catalog/info-rules-imf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/playground/ImfType/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/cognite/neat/rules/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE174CBF-0005-4340-8C24-5119C58DA36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D2F11-87B9-5C42-B8F9-FA67686FBA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>role</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Free to use</t>
   </si>
   <si>
-    <t>Attribute</t>
-  </si>
-  <si>
     <t>predicate</t>
   </si>
   <si>
@@ -283,6 +280,39 @@
   </si>
   <si>
     <t>imf:AttributeType(imf:uom)</t>
+  </si>
+  <si>
+    <t>AttributeType</t>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <t>imf:AttributeType</t>
+  </si>
+  <si>
+    <t>imf:predicate</t>
+  </si>
+  <si>
+    <t>rdfs:range</t>
+  </si>
+  <si>
+    <t>imf:concerns</t>
+  </si>
+  <si>
+    <t>skos:prefLabel</t>
+  </si>
+  <si>
+    <t>skos:definition</t>
+  </si>
+  <si>
+    <t>skos:exactMatch</t>
+  </si>
+  <si>
+    <t>imf:hasAttributeQualifier</t>
+  </si>
+  <si>
+    <t>imf:uom</t>
   </si>
 </sst>
 </file>
@@ -686,14 +716,14 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView zoomScale="383" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="296" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
     <col min="3" max="3" width="57" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="11.33203125" customWidth="1"/>
     <col min="12" max="17" width="11.1640625" customWidth="1"/>
@@ -7446,14 +7476,16 @@
   </sheetPr>
   <dimension ref="A1:X993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" style="7" customWidth="1"/>
-    <col min="2" max="6" width="36.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" style="7" customWidth="1"/>
     <col min="7" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7518,10 +7550,20 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:24"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="18"/>
+      <c r="C4" s="18"/>
+    </row>
     <row r="5" spans="1:24"/>
     <row r="6" spans="1:24"/>
     <row r="7" spans="1:24" ht="17.25" customHeight="1"/>
@@ -8519,8 +8561,8 @@
   </sheetPr>
   <dimension ref="A1:Q928"/>
   <sheetViews>
-    <sheetView zoomScale="217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -8600,7 +8642,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>12</v>
@@ -8617,14 +8659,14 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -8634,20 +8676,25 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
@@ -8657,20 +8704,25 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -8680,20 +8732,25 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -8703,20 +8760,25 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
@@ -8726,66 +8788,81 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="9"/>
       <c r="E8" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="9"/>
       <c r="E9" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="9"/>
       <c r="E10" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
@@ -8795,9 +8872,14 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1">
       <c r="C11" s="9"/>
